--- a/Lab4/Lab4/Excel.xlsx
+++ b/Lab4/Lab4/Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Проекты\Lab4\Lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4A9825-655B-432E-8919-5A5EE4CC396C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7D6D42-9CF8-44BE-A5FF-3C0DE7684C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="468" yWindow="408" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -346,10 +346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -380,6 +380,36 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
